--- a/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/Final 2023-12-14 BOQ of FSS Works.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/Final 2023-12-14 BOQ of FSS Works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al Habib Center Point Karachi\BAHL rectification of Toilet Exhaust system 20th to 24th Floor\Bank Al Habib Ltd PIPE LOOP WORK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al Habib Center Point Karachi\FIRE PIPE LOOP WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBF4B13-9CF6-4054-8BEC-E738072AE17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A8573E-01D7-475C-9215-148E68F7B001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Table 1'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -861,41 +861,53 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -906,9 +918,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -932,15 +941,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -961,9 +961,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1001,9 +1001,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1036,9 +1036,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1071,9 +1088,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1249,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1265,42 +1299,42 @@
     <col min="8" max="8" width="13.83203125" style="9" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="9" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" style="9"/>
-    <col min="11" max="11" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" style="9" customWidth="1"/>
     <col min="13" max="16384" width="9.33203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
@@ -1312,50 +1346,50 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:12" ht="13.35" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="43" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="44"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="13.35" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
@@ -1913,12 +1947,12 @@
     </row>
     <row r="27" spans="1:12" ht="17.850000000000001" customHeight="1">
       <c r="A27" s="25"/>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26">
         <f>SUM(G8:G26)</f>
@@ -1936,12 +1970,12 @@
     </row>
     <row r="28" spans="1:12" ht="17.850000000000001" customHeight="1">
       <c r="A28" s="25"/>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26">
         <v>202045.97999999998</v>
@@ -1953,15 +1987,16 @@
         <f t="shared" ref="I28" si="2">I27*2%</f>
         <v>119135.98</v>
       </c>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:12" ht="17.850000000000001" customHeight="1">
       <c r="A29" s="25"/>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26">
         <f>G27-G28</f>
@@ -1978,12 +2013,12 @@
     </row>
     <row r="30" spans="1:12" ht="17.850000000000001" customHeight="1">
       <c r="A30" s="25"/>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="26"/>
       <c r="G30" s="26">
         <f>G29*18%</f>
@@ -2000,12 +2035,12 @@
     </row>
     <row r="31" spans="1:12" ht="17.850000000000001" customHeight="1">
       <c r="A31" s="25"/>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26">
         <f>G29+G30</f>
@@ -2020,39 +2055,40 @@
         <v>6687820.0635999991</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="39" t="s">
+    <row r="33" spans="1:7" ht="15">
+      <c r="A33" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="39"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="50"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:7">
       <c r="A36" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:7">
       <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A5:A6"/>
@@ -2060,14 +2096,14 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2093,39 +2129,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2137,53 +2173,53 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="13.35" customHeight="1">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="51" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2201,32 +2237,32 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" ht="27.2" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
@@ -2234,25 +2270,20 @@
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="B14:H14"/>
@@ -2262,6 +2293,11 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
